--- a/lessons/input.xlsx
+++ b/lessons/input.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GraphQL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Machine" sheetId="1" r:id="rId1"/>
@@ -18,8 +13,11 @@
     <sheet name="FieldMission" sheetId="4" r:id="rId4"/>
     <sheet name="Technician" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -28,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
   <si>
     <t>standort</t>
   </si>
@@ -160,12 +155,75 @@
   </si>
   <si>
     <t>Mehmet</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>c7</t>
+  </si>
+  <si>
+    <t>c8</t>
+  </si>
+  <si>
+    <t>c9</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>e4</t>
+  </si>
+  <si>
+    <t>e5</t>
+  </si>
+  <si>
+    <t>e6</t>
+  </si>
+  <si>
+    <t>e7</t>
+  </si>
+  <si>
+    <t>e8</t>
+  </si>
+  <si>
+    <t>e9</t>
+  </si>
+  <si>
+    <t>e10</t>
+  </si>
+  <si>
+    <t>e11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -257,7 +315,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -292,7 +350,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -469,7 +527,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -480,50 +538,50 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>123456</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>8888</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>456788</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>9999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>6789</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -531,6 +589,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -539,25 +602,25 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A5" sqref="A5:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>44</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -566,9 +629,9 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>45</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -577,9 +640,9 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>46</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -588,9 +651,9 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>47</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -599,9 +662,9 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>48</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -610,9 +673,9 @@
         <v>456788</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>49</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -621,9 +684,9 @@
         <v>456788</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>50</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -632,9 +695,9 @@
         <v>456788</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>51</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -643,9 +706,9 @@
         <v>456788</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>52</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -656,6 +719,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -663,149 +731,154 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
+      <c r="C12" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -814,149 +887,149 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -964,6 +1037,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -971,101 +1049,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>